--- a/CalculadoraFoE.xlsx
+++ b/CalculadoraFoE.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_26e0\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\foe\CalculadoraFoe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1061" documentId="11_9248B46DC1CBB2E3ED7FF6F9903E8C1851038383" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{75AC5292-8592-44A6-A916-86CFE83DBAF5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C6820E-6450-4192-9E9C-BE2B597ACE47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -191,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,10 +833,10 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="2.140625" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
@@ -855,7 +854,7 @@
     <col min="22" max="24" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -877,7 +876,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="31.5">
+    <row r="2" spans="1:24" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="21" t="s">
@@ -905,7 +904,7 @@
       </c>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -927,7 +926,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75">
+    <row r="4" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
@@ -955,7 +954,7 @@
       <c r="S4" s="27"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="18.75">
+    <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
@@ -985,7 +984,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
@@ -1007,12 +1006,12 @@
         <v>9</v>
       </c>
       <c r="O6" s="24" t="str">
-        <f>_xlfn.CONCAT(D21+K8," / ",K5)</f>
-        <v>608 / 1340</v>
+        <f>CONCATENATE(D21+K8," / ",K5)</f>
+        <v>663 / 1340</v>
       </c>
       <c r="P6" s="13">
         <f>K5-(D21+K8)+D6</f>
-        <v>732</v>
+        <v>677</v>
       </c>
       <c r="Q6" s="13"/>
       <c r="R6" s="18" t="str">
@@ -1034,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
@@ -1062,12 +1061,12 @@
         <v>14</v>
       </c>
       <c r="O7" s="13" t="str">
-        <f>_xlfn.CONCAT(D21+K8+K9," / ",K5)</f>
-        <v>912 / 1340</v>
+        <f>CONCATENATE(D21+K8+K9," / ",K5)</f>
+        <v>967 / 1340</v>
       </c>
       <c r="P7" s="13">
         <f>K5-(D21+K8+K9)+D6</f>
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="Q7" s="13"/>
       <c r="R7" s="18" t="str">
@@ -1089,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="12"/>
       <c r="C8" s="13" t="s">
@@ -1121,12 +1120,12 @@
         <v>17</v>
       </c>
       <c r="O8" s="13" t="str">
-        <f>_xlfn.CONCAT(D21+K8+K9+K10," / ",K5)</f>
-        <v>1017 / 1340</v>
+        <f>CONCATENATE(D21+K8+K9+K10," / ",K5)</f>
+        <v>1072 / 1340</v>
       </c>
       <c r="P8" s="24">
         <f>K5-(D21+K8+K9+K10)+D6</f>
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="13"/>
       <c r="R8" s="18" t="str">
@@ -1148,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
@@ -1180,12 +1179,12 @@
         <v>20</v>
       </c>
       <c r="O9" s="13" t="str">
-        <f>_xlfn.CONCAT(D21+K8+K9+K10+K11," / ",K5)</f>
-        <v>1046 / 1340</v>
+        <f>CONCATENATE(D21+K8+K9+K10+K11," / ",K5)</f>
+        <v>1101 / 1340</v>
       </c>
       <c r="P9" s="24">
         <f>K5-(D21+K8+K9+K10+K11)+D6</f>
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="Q9" s="13"/>
       <c r="R9" s="18" t="str">
@@ -1207,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13" t="s">
@@ -1239,12 +1238,12 @@
         <v>23</v>
       </c>
       <c r="O10" s="13" t="str">
-        <f>_xlfn.CONCAT(D21+K8+K9+K10+K11+K12," / ",K5)</f>
-        <v>1056 / 1340</v>
+        <f>CONCATENATE(D21+K8+K9+K10+K11+K12," / ",K5)</f>
+        <v>1111 / 1340</v>
       </c>
       <c r="P10" s="24">
         <f>K5-(D21+K8+K9+K10+K11+K12)+D6</f>
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="18" t="str">
@@ -1266,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
@@ -1302,7 +1301,7 @@
       <c r="S11" s="18"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13" t="s">
@@ -1338,7 +1337,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13" t="s">
@@ -1364,7 +1363,7 @@
       <c r="S13" s="20"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12"/>
       <c r="C14" s="13" t="s">
@@ -1390,7 +1389,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="1:24" ht="18.75">
+    <row r="15" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="12"/>
       <c r="C15" s="13" t="s">
@@ -1416,7 +1415,7 @@
       <c r="S15" s="27"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="12"/>
       <c r="C16" s="13" t="s">
@@ -1447,7 +1446,7 @@
       <c r="T16" s="3"/>
       <c r="W16" s="41"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="12"/>
       <c r="C17" s="13" t="s">
@@ -1464,14 +1463,14 @@
       <c r="J17" s="29"/>
       <c r="K17" s="30">
         <f>K5-D21</f>
-        <v>1340</v>
+        <v>1285</v>
       </c>
       <c r="L17" s="13" t="s">
         <v>38</v>
       </c>
       <c r="M17" s="13">
         <f>TRUNC(((K17-$D$6)/2)+$D$6, 0)+1</f>
-        <v>671</v>
+        <v>643</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="13" t="s">
@@ -1479,14 +1478,14 @@
       </c>
       <c r="P17" s="31">
         <f>(M17-K8)*2</f>
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
       <c r="S17" s="32"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
@@ -1501,14 +1500,14 @@
       <c r="J18" s="29"/>
       <c r="K18" s="33">
         <f>K17-K8</f>
-        <v>732</v>
+        <v>677</v>
       </c>
       <c r="L18" s="13" t="s">
         <v>41</v>
       </c>
       <c r="M18" s="13">
         <f>TRUNC(((K18-$D$6)/2)+$D$6, 0)+1</f>
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="13" t="s">
@@ -1516,21 +1515,21 @@
       </c>
       <c r="P18" s="31">
         <f>(M18-K9)*2</f>
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="32"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="17">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="1"/>
@@ -1542,14 +1541,14 @@
       <c r="J19" s="29"/>
       <c r="K19" s="33">
         <f>K18-K9</f>
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="L19" s="13" t="s">
         <v>44</v>
       </c>
       <c r="M19" s="13">
         <f>TRUNC(((K19-$D$6)/2)+$D$6, 0)+1</f>
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="13" t="s">
@@ -1557,14 +1556,14 @@
       </c>
       <c r="P19" s="31">
         <f>(M19-K10)*2</f>
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
       <c r="S19" s="32"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
@@ -1579,14 +1578,14 @@
       <c r="J20" s="29"/>
       <c r="K20" s="33">
         <f>K19-K10</f>
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="L20" s="13" t="s">
         <v>46</v>
       </c>
       <c r="M20" s="13">
         <f>TRUNC(((K20-$D$6)/2)+$D$6, 0)+1</f>
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="13" t="s">
@@ -1594,18 +1593,15 @@
       </c>
       <c r="P20" s="31">
         <f>(M20-K11)*2</f>
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
       <c r="S20" s="32"/>
       <c r="T20" s="3"/>
-      <c r="W20" s="41">
-        <f>K5-W16</f>
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="W20" s="41"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13" t="s">
@@ -1613,10 +1609,10 @@
       </c>
       <c r="D21" s="13">
         <f>SUM(D6:D20)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E21" s="18" t="str">
-        <f>_xlfn.CONCAT("/ ",K5)</f>
+        <f>CONCATENATE("/ ",K5)</f>
         <v>/ 1340</v>
       </c>
       <c r="F21" s="1"/>
@@ -1628,14 +1624,14 @@
       <c r="J21" s="29"/>
       <c r="K21" s="33">
         <f>K20-K11</f>
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="L21" s="13" t="s">
         <v>48</v>
       </c>
       <c r="M21" s="13">
         <f>TRUNC(((K21-$D$6)/2)+$D$6, 0)+1</f>
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="13" t="s">
@@ -1643,14 +1639,14 @@
       </c>
       <c r="P21" s="31">
         <f>(M21-K12)*2</f>
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
       <c r="S21" s="32"/>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="19"/>
       <c r="C22" s="2"/>
@@ -1674,7 +1670,7 @@
       <c r="S22" s="36"/>
       <c r="T22" s="3"/>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1780,18 +1776,18 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="3:10">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1808,7 +1804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:10">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>51</v>
       </c>

--- a/CalculadoraFoE.xlsx
+++ b/CalculadoraFoE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\foe\CalculadoraFoe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C6820E-6450-4192-9E9C-BE2B597ACE47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E1022C-0A9B-45C8-9623-16560CDCAC09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +241,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +271,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,8 +440,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +867,7 @@
     <col min="22" max="24" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -875,8 +888,15 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="6"/>
-    </row>
-    <row r="2" spans="1:24" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+    </row>
+    <row r="2" spans="1:27" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="21" t="s">
@@ -903,8 +923,15 @@
         <v>4</v>
       </c>
       <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -925,8 +952,15 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="6"/>
-    </row>
-    <row r="4" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+    </row>
+    <row r="4" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
@@ -953,8 +987,15 @@
       <c r="R4" s="22"/>
       <c r="S4" s="27"/>
       <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+    </row>
+    <row r="5" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
@@ -983,8 +1024,15 @@
       <c r="R5" s="13"/>
       <c r="S5" s="18"/>
       <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
@@ -1020,6 +1068,7 @@
       </c>
       <c r="S6" s="18"/>
       <c r="T6" s="1"/>
+      <c r="U6" s="40"/>
       <c r="V6" s="40" t="b">
         <f>K8&gt;P6</f>
         <v>0</v>
@@ -1032,8 +1081,11 @@
         <f>AND(V6,W6)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
@@ -1075,6 +1127,7 @@
       </c>
       <c r="S7" s="18"/>
       <c r="T7" s="1"/>
+      <c r="U7" s="40"/>
       <c r="V7" s="40" t="b">
         <f t="shared" ref="V7:V10" si="0">K9&gt;P7</f>
         <v>0</v>
@@ -1087,8 +1140,11 @@
         <f t="shared" ref="X7:X10" si="1">AND(V7,W7)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="12"/>
       <c r="C8" s="13" t="s">
@@ -1134,6 +1190,7 @@
       </c>
       <c r="S8" s="18"/>
       <c r="T8" s="1"/>
+      <c r="U8" s="40"/>
       <c r="V8" s="40" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1146,8 +1203,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
@@ -1193,6 +1253,7 @@
       </c>
       <c r="S9" s="18"/>
       <c r="T9" s="1"/>
+      <c r="U9" s="40"/>
       <c r="V9" s="40" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1205,8 +1266,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13" t="s">
@@ -1252,6 +1316,7 @@
       </c>
       <c r="S10" s="18"/>
       <c r="T10" s="1"/>
+      <c r="U10" s="40"/>
       <c r="V10" s="40" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1264,8 +1329,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
@@ -1300,8 +1368,15 @@
       <c r="R11" s="13"/>
       <c r="S11" s="18"/>
       <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13" t="s">
@@ -1336,8 +1411,15 @@
       <c r="R12" s="13"/>
       <c r="S12" s="18"/>
       <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13" t="s">
@@ -1362,8 +1444,15 @@
       <c r="R13" s="2"/>
       <c r="S13" s="20"/>
       <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12"/>
       <c r="C14" s="13" t="s">
@@ -1388,8 +1477,15 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="3"/>
-    </row>
-    <row r="15" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+    </row>
+    <row r="15" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="12"/>
       <c r="C15" s="13" t="s">
@@ -1414,8 +1510,15 @@
       <c r="R15" s="22"/>
       <c r="S15" s="27"/>
       <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="12"/>
       <c r="C16" s="13" t="s">
@@ -1444,9 +1547,15 @@
       <c r="R16" s="13"/>
       <c r="S16" s="18"/>
       <c r="T16" s="3"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
       <c r="W16" s="41"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="12"/>
       <c r="C17" s="13" t="s">
@@ -1484,8 +1593,15 @@
       <c r="R17" s="13"/>
       <c r="S17" s="32"/>
       <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
@@ -1521,8 +1637,15 @@
       <c r="R18" s="13"/>
       <c r="S18" s="32"/>
       <c r="T18" s="3"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13" t="s">
@@ -1562,8 +1685,15 @@
       <c r="R19" s="13"/>
       <c r="S19" s="32"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
@@ -1599,9 +1729,15 @@
       <c r="R20" s="13"/>
       <c r="S20" s="32"/>
       <c r="T20" s="3"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
       <c r="W20" s="41"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13" t="s">
@@ -1645,8 +1781,15 @@
       <c r="R21" s="13"/>
       <c r="S21" s="32"/>
       <c r="T21" s="3"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="19"/>
       <c r="C22" s="2"/>
@@ -1669,8 +1812,15 @@
       <c r="R22" s="35"/>
       <c r="S22" s="36"/>
       <c r="T22" s="3"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1691,6 +1841,13 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="R6:R10">

--- a/CalculadoraFoE.xlsx
+++ b/CalculadoraFoE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\foe\CalculadoraFoe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E1022C-0A9B-45C8-9623-16560CDCAC09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49552460-E9B8-461E-84D5-AFD4B173E029}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="52">
   <si>
     <t>Calculadora GE FoE</t>
   </si>
@@ -373,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -442,6 +442,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,7 +847,7 @@
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +895,7 @@
       <c r="X1" s="40"/>
       <c r="Y1" s="40"/>
       <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
+      <c r="AA1" s="42"/>
     </row>
     <row r="2" spans="1:27" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
@@ -929,7 +930,7 @@
       <c r="X2" s="40"/>
       <c r="Y2" s="40"/>
       <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="42"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -958,7 +959,7 @@
       <c r="X3" s="40"/>
       <c r="Y3" s="40"/>
       <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
+      <c r="AA3" s="42"/>
     </row>
     <row r="4" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -993,7 +994,7 @@
       <c r="X4" s="40"/>
       <c r="Y4" s="40"/>
       <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
+      <c r="AA4" s="42"/>
     </row>
     <row r="5" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -1030,7 +1031,7 @@
       <c r="X5" s="40"/>
       <c r="Y5" s="40"/>
       <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
+      <c r="AA5" s="42"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1083,7 +1084,7 @@
       </c>
       <c r="Y6" s="40"/>
       <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
+      <c r="AA6" s="42"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1142,7 +1143,7 @@
       </c>
       <c r="Y7" s="40"/>
       <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
+      <c r="AA7" s="42"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1205,7 +1206,7 @@
       </c>
       <c r="Y8" s="40"/>
       <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
+      <c r="AA8" s="42"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -1268,7 +1269,7 @@
       </c>
       <c r="Y9" s="40"/>
       <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
+      <c r="AA9" s="42"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1331,7 +1332,7 @@
       </c>
       <c r="Y10" s="40"/>
       <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
+      <c r="AA10" s="42"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1374,7 +1375,7 @@
       <c r="X11" s="40"/>
       <c r="Y11" s="40"/>
       <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
+      <c r="AA11" s="42"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -1417,7 +1418,7 @@
       <c r="X12" s="40"/>
       <c r="Y12" s="40"/>
       <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
+      <c r="AA12" s="42"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1450,7 +1451,7 @@
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
+      <c r="AA13" s="42"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1483,7 +1484,7 @@
       <c r="X14" s="40"/>
       <c r="Y14" s="40"/>
       <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
+      <c r="AA14" s="42"/>
     </row>
     <row r="15" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -1516,7 +1517,7 @@
       <c r="X15" s="40"/>
       <c r="Y15" s="40"/>
       <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
+      <c r="AA15" s="42"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1553,7 +1554,7 @@
       <c r="X16" s="40"/>
       <c r="Y16" s="40"/>
       <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
+      <c r="AA16" s="42"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -1599,7 +1600,7 @@
       <c r="X17" s="40"/>
       <c r="Y17" s="40"/>
       <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
+      <c r="AA17" s="42"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -1643,7 +1644,7 @@
       <c r="X18" s="40"/>
       <c r="Y18" s="40"/>
       <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
+      <c r="AA18" s="42"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -1691,7 +1692,7 @@
       <c r="X19" s="40"/>
       <c r="Y19" s="40"/>
       <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
+      <c r="AA19" s="42"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -1735,7 +1736,7 @@
       <c r="X20" s="40"/>
       <c r="Y20" s="40"/>
       <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
+      <c r="AA20" s="42"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -1787,7 +1788,7 @@
       <c r="X21" s="40"/>
       <c r="Y21" s="40"/>
       <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
+      <c r="AA21" s="42"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -1818,7 +1819,7 @@
       <c r="X22" s="40"/>
       <c r="Y22" s="40"/>
       <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
+      <c r="AA22" s="42"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -1847,7 +1848,7 @@
       <c r="X23" s="40"/>
       <c r="Y23" s="40"/>
       <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
+      <c r="AA23" s="42"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="R6:R10">
